--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122013a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122013a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>1.425707901084489</v>
+      </c>
+      <c r="C5">
+        <v>1.588503024254201</v>
+      </c>
+      <c r="D5">
+        <v>1.67047425346815</v>
+      </c>
+      <c r="E5">
+        <v>1.806940729440574</v>
+      </c>
+      <c r="F5">
+        <v>1.733659793914248</v>
+      </c>
+      <c r="G5">
+        <v>3.19517222438183</v>
+      </c>
+      <c r="H5">
+        <v>1.84595630964517</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.425707901084489</v>
+        <v>5.483976683518989</v>
       </c>
       <c r="C6">
-        <v>1.588503024254201</v>
+        <v>5.610688880152646</v>
       </c>
       <c r="D6">
-        <v>1.67047425346815</v>
+        <v>7.192125320109788</v>
       </c>
       <c r="E6">
-        <v>1.806940729440574</v>
+        <v>7.187600788483539</v>
       </c>
       <c r="F6">
-        <v>1.733659793914248</v>
+        <v>6.936886300722823</v>
       </c>
       <c r="G6">
-        <v>3.19517222438183</v>
+        <v>13.33523701895822</v>
       </c>
       <c r="H6">
-        <v>1.84595630964517</v>
+        <v>7.26825894372933</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>5.483976683518989</v>
+        <v>4.953623500589017</v>
       </c>
       <c r="C7">
-        <v>5.610688880152646</v>
+        <v>5.212628117226154</v>
       </c>
       <c r="D7">
-        <v>7.192125320109788</v>
+        <v>5.388356880345414</v>
       </c>
       <c r="E7">
-        <v>7.187600788483539</v>
+        <v>5.633549559601236</v>
       </c>
       <c r="F7">
-        <v>6.936886300722823</v>
+        <v>5.393370608272321</v>
       </c>
       <c r="G7">
-        <v>13.33523701895822</v>
+        <v>7.780830960846042</v>
       </c>
       <c r="H7">
-        <v>7.26825894372933</v>
+        <v>5.67663314770075</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>8.779108754518214</v>
+      </c>
+      <c r="C8">
+        <v>9.472454861100758</v>
+      </c>
+      <c r="D8">
+        <v>10.16234219960635</v>
+      </c>
+      <c r="E8">
+        <v>11.21789972453751</v>
+      </c>
+      <c r="F8">
+        <v>9.777449142550033</v>
+      </c>
+      <c r="G8">
+        <v>17.50373933858478</v>
+      </c>
+      <c r="H8">
+        <v>10.29760257835328</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>4.953623500589017</v>
+        <v>15.79694136950789</v>
       </c>
       <c r="C9">
-        <v>5.212628117226154</v>
+        <v>17.13253663528535</v>
       </c>
       <c r="D9">
-        <v>5.388356880345414</v>
+        <v>16.38602914955089</v>
       </c>
       <c r="E9">
-        <v>5.633549559601236</v>
+        <v>18.85200032001068</v>
       </c>
       <c r="F9">
-        <v>5.393370608272321</v>
+        <v>15.4872771123596</v>
       </c>
       <c r="G9">
-        <v>7.780830960846042</v>
+        <v>22.25407518528089</v>
       </c>
       <c r="H9">
-        <v>5.67663314770075</v>
+        <v>16.63028040248721</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>8.779108754518214</v>
+        <v>11.59609862379099</v>
       </c>
       <c r="C10">
-        <v>9.472454861100758</v>
+        <v>11.44684052643513</v>
       </c>
       <c r="D10">
-        <v>10.16234219960635</v>
+        <v>14.55497097299721</v>
       </c>
       <c r="E10">
-        <v>11.21789972453751</v>
+        <v>14.61194073974387</v>
       </c>
       <c r="F10">
-        <v>9.777449142550033</v>
+        <v>11.90182991599448</v>
       </c>
       <c r="G10">
-        <v>17.50373933858478</v>
+        <v>33.9591104041515</v>
       </c>
       <c r="H10">
-        <v>10.29760257835328</v>
+        <v>12.1809832166034</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>15.79694136950789</v>
+        <v>11.47314760380918</v>
       </c>
       <c r="C11">
-        <v>17.13253663528535</v>
+        <v>14.27589205650168</v>
       </c>
       <c r="D11">
-        <v>16.38602914955089</v>
+        <v>13.17190653349454</v>
       </c>
       <c r="E11">
-        <v>18.85200032001068</v>
+        <v>18.8598187994933</v>
       </c>
       <c r="F11">
-        <v>15.4872771123596</v>
+        <v>11.54405243921769</v>
       </c>
       <c r="G11">
-        <v>22.25407518528089</v>
+        <v>29.28414852815772</v>
       </c>
       <c r="H11">
-        <v>16.63028040248721</v>
+        <v>11.31506635214927</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>11.59609862379099</v>
+        <v>7.678194976058522</v>
       </c>
       <c r="C12">
-        <v>11.44684052643513</v>
+        <v>7.995325217402709</v>
       </c>
       <c r="D12">
-        <v>14.55497097299721</v>
+        <v>8.261432090452541</v>
       </c>
       <c r="E12">
-        <v>14.61194073974387</v>
+        <v>8.818424479668197</v>
       </c>
       <c r="F12">
-        <v>11.90182991599448</v>
+        <v>8.261954240258046</v>
       </c>
       <c r="G12">
-        <v>33.9591104041515</v>
+        <v>10.91406386643173</v>
       </c>
       <c r="H12">
-        <v>12.1809832166034</v>
+        <v>8.625515863973032</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>11.47314760380918</v>
+        <v>16.42941918203106</v>
       </c>
       <c r="C13">
-        <v>14.27589205650168</v>
+        <v>18.93087140175888</v>
       </c>
       <c r="D13">
-        <v>13.17190653349454</v>
+        <v>16.57734289612523</v>
       </c>
       <c r="E13">
-        <v>18.8598187994933</v>
+        <v>17.81713899401842</v>
       </c>
       <c r="F13">
-        <v>11.54405243921769</v>
+        <v>18.05527741907842</v>
       </c>
       <c r="G13">
-        <v>29.28414852815772</v>
+        <v>24.3096931792164</v>
       </c>
       <c r="H13">
-        <v>11.31506635214927</v>
+        <v>18.09395005125346</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>7.678194976058522</v>
+        <v>13.69623095554915</v>
       </c>
       <c r="C14">
-        <v>7.995325217402709</v>
+        <v>13.57399136073201</v>
       </c>
       <c r="D14">
-        <v>8.261432090452541</v>
+        <v>15.5750331218568</v>
       </c>
       <c r="E14">
-        <v>8.818424479668197</v>
+        <v>16.83309192136847</v>
       </c>
       <c r="F14">
-        <v>8.261954240258046</v>
+        <v>14.98118011375239</v>
       </c>
       <c r="G14">
-        <v>10.91406386643173</v>
+        <v>29.58120252501174</v>
       </c>
       <c r="H14">
-        <v>8.625515863973032</v>
+        <v>15.91788748282277</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>16.42941918203106</v>
+        <v>2.671322278682676</v>
       </c>
       <c r="C15">
-        <v>18.93087140175888</v>
+        <v>3.039004988290057</v>
       </c>
       <c r="D15">
-        <v>16.57734289612523</v>
+        <v>2.993561102028616</v>
       </c>
       <c r="E15">
-        <v>17.81713899401842</v>
+        <v>3.30287569408631</v>
       </c>
       <c r="F15">
-        <v>18.05527741907842</v>
+        <v>3.116961679345086</v>
       </c>
       <c r="G15">
-        <v>24.3096931792164</v>
+        <v>5.074210037127028</v>
       </c>
       <c r="H15">
-        <v>18.09395005125346</v>
+        <v>3.249922562526045</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>13.69623095554915</v>
+        <v>14.84341115266662</v>
       </c>
       <c r="C16">
-        <v>13.57399136073201</v>
+        <v>16.11746659455837</v>
       </c>
       <c r="D16">
-        <v>15.5750331218568</v>
+        <v>15.58644486156633</v>
       </c>
       <c r="E16">
-        <v>16.83309192136847</v>
+        <v>16.5080416617337</v>
       </c>
       <c r="F16">
-        <v>14.98118011375239</v>
+        <v>16.67393617465977</v>
       </c>
       <c r="G16">
-        <v>29.58120252501174</v>
+        <v>17.27950661093756</v>
       </c>
       <c r="H16">
-        <v>15.91788748282277</v>
+        <v>17.3737765741277</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>2.671322278682676</v>
+        <v>14.53299502583249</v>
       </c>
       <c r="C17">
-        <v>3.039004988290057</v>
+        <v>16.04539962373021</v>
       </c>
       <c r="D17">
-        <v>2.993561102028616</v>
+        <v>17.65593517446957</v>
       </c>
       <c r="E17">
-        <v>3.30287569408631</v>
+        <v>15.20455892754643</v>
       </c>
       <c r="F17">
-        <v>3.116961679345086</v>
+        <v>15.78208015905</v>
       </c>
       <c r="G17">
-        <v>5.074210037127028</v>
+        <v>42.35038655337409</v>
       </c>
       <c r="H17">
-        <v>3.249922562526045</v>
+        <v>14.81241173467914</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>14.84341115266662</v>
+        <v>4.566906882314461</v>
       </c>
       <c r="C18">
-        <v>16.11746659455837</v>
+        <v>5.181759630826851</v>
       </c>
       <c r="D18">
-        <v>15.58644486156633</v>
+        <v>4.828457384829426</v>
       </c>
       <c r="E18">
-        <v>16.5080416617337</v>
+        <v>6.345048547529662</v>
       </c>
       <c r="F18">
-        <v>16.67393617465977</v>
+        <v>5.209288273611449</v>
       </c>
       <c r="G18">
-        <v>17.27950661093756</v>
+        <v>12.90248215158346</v>
       </c>
       <c r="H18">
-        <v>17.3737765741277</v>
+        <v>5.252255745929859</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>14.53299502583249</v>
+        <v>7.229802991765909</v>
       </c>
       <c r="C19">
-        <v>16.04539962373021</v>
+        <v>8.418917469971049</v>
       </c>
       <c r="D19">
-        <v>17.65593517446957</v>
+        <v>8.17176864616547</v>
       </c>
       <c r="E19">
-        <v>15.20455892754643</v>
+        <v>10.44587909246737</v>
       </c>
       <c r="F19">
-        <v>15.78208015905</v>
+        <v>8.560799081007255</v>
       </c>
       <c r="G19">
-        <v>42.35038655337409</v>
+        <v>16.3312997191947</v>
       </c>
       <c r="H19">
-        <v>14.81241173467914</v>
+        <v>8.979991139419088</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>4.566906882314461</v>
+        <v>9.69422194094302</v>
       </c>
       <c r="C20">
-        <v>5.181759630826851</v>
+        <v>13.83335025513031</v>
       </c>
       <c r="D20">
-        <v>4.828457384829426</v>
+        <v>10.79338506178405</v>
       </c>
       <c r="E20">
-        <v>6.345048547529662</v>
+        <v>14.0586325833849</v>
       </c>
       <c r="F20">
-        <v>5.209288273611449</v>
+        <v>10.46320464007791</v>
       </c>
       <c r="G20">
-        <v>12.90248215158346</v>
+        <v>25.50745373636522</v>
       </c>
       <c r="H20">
-        <v>5.252255745929859</v>
+        <v>11.2260151790262</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>7.229802991765909</v>
+        <v>5.348424452860407</v>
       </c>
       <c r="C21">
-        <v>8.418917469971049</v>
+        <v>7.136606072102084</v>
       </c>
       <c r="D21">
-        <v>8.17176864616547</v>
+        <v>5.801858384784846</v>
       </c>
       <c r="E21">
-        <v>10.44587909246737</v>
+        <v>6.602241938174776</v>
       </c>
       <c r="F21">
-        <v>8.560799081007255</v>
+        <v>6.038327803265321</v>
       </c>
       <c r="G21">
-        <v>16.3312997191947</v>
+        <v>12.95419881971003</v>
       </c>
       <c r="H21">
-        <v>8.979991139419088</v>
+        <v>6.118267095997847</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>9.69422194094302</v>
+        <v>12.77286649985641</v>
       </c>
       <c r="C22">
-        <v>13.83335025513031</v>
+        <v>14.7880171569703</v>
       </c>
       <c r="D22">
-        <v>10.79338506178405</v>
+        <v>13.36421883619622</v>
       </c>
       <c r="E22">
-        <v>14.0586325833849</v>
+        <v>18.50013273932596</v>
       </c>
       <c r="F22">
-        <v>10.46320464007791</v>
+        <v>14.27392340134207</v>
       </c>
       <c r="G22">
-        <v>25.50745373636522</v>
+        <v>31.20615325577565</v>
       </c>
       <c r="H22">
-        <v>11.2260151790262</v>
+        <v>14.95287239096097</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>5.348424452860407</v>
+        <v>7.304450220989305</v>
       </c>
       <c r="C23">
-        <v>7.136606072102084</v>
+        <v>8.684055345127959</v>
       </c>
       <c r="D23">
-        <v>5.801858384784846</v>
+        <v>9.822139478950422</v>
       </c>
       <c r="E23">
-        <v>6.602241938174776</v>
+        <v>10.04864323313724</v>
       </c>
       <c r="F23">
-        <v>6.038327803265321</v>
+        <v>7.986058802435184</v>
       </c>
       <c r="G23">
-        <v>12.95419881971003</v>
+        <v>18.56967080973677</v>
       </c>
       <c r="H23">
-        <v>6.118267095997847</v>
+        <v>7.918220323877414</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>12.77286649985641</v>
+        <v>5.222039048775633</v>
       </c>
       <c r="C24">
-        <v>14.7880171569703</v>
+        <v>5.906270047944444</v>
       </c>
       <c r="D24">
-        <v>13.36421883619622</v>
+        <v>5.821368391250776</v>
       </c>
       <c r="E24">
-        <v>18.50013273932596</v>
+        <v>7.44783498109871</v>
       </c>
       <c r="F24">
-        <v>14.27392340134207</v>
+        <v>5.518645998956107</v>
       </c>
       <c r="G24">
-        <v>31.20615325577565</v>
+        <v>6.824079531588912</v>
       </c>
       <c r="H24">
-        <v>14.95287239096097</v>
+        <v>6.425298656270497</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>7.304450220989305</v>
+        <v>2.510586971305684</v>
       </c>
       <c r="C25">
-        <v>8.684055345127959</v>
+        <v>2.783002794024658</v>
       </c>
       <c r="D25">
-        <v>9.822139478950422</v>
+        <v>2.935472929907111</v>
       </c>
       <c r="E25">
-        <v>10.04864323313724</v>
+        <v>3.011168631252791</v>
       </c>
       <c r="F25">
-        <v>7.986058802435184</v>
+        <v>3.104010288341501</v>
       </c>
       <c r="G25">
-        <v>18.56967080973677</v>
+        <v>6.018179940282558</v>
       </c>
       <c r="H25">
-        <v>7.918220323877414</v>
+        <v>3.307674452995643</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>5.222039048775633</v>
+        <v>4.687770414397508</v>
       </c>
       <c r="C26">
-        <v>5.906270047944444</v>
+        <v>5.578587627029527</v>
       </c>
       <c r="D26">
-        <v>5.821368391250776</v>
+        <v>5.299783524344431</v>
       </c>
       <c r="E26">
-        <v>7.44783498109871</v>
+        <v>5.592656265644516</v>
       </c>
       <c r="F26">
-        <v>5.518645998956107</v>
+        <v>6.117583209167653</v>
       </c>
       <c r="G26">
-        <v>6.824079531588912</v>
+        <v>11.58341217985781</v>
       </c>
       <c r="H26">
-        <v>6.425298656270497</v>
+        <v>6.440859411981068</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>2.510586971305684</v>
+        <v>8.839237067717818</v>
       </c>
       <c r="C27">
-        <v>2.783002794024658</v>
+        <v>11.2302191373107</v>
       </c>
       <c r="D27">
-        <v>2.935472929907111</v>
+        <v>10.65710192416478</v>
       </c>
       <c r="E27">
-        <v>3.011168631252791</v>
+        <v>12.57462289869456</v>
       </c>
       <c r="F27">
-        <v>3.104010288341501</v>
+        <v>9.650485508233226</v>
       </c>
       <c r="G27">
-        <v>6.018179940282558</v>
+        <v>17.90379434287184</v>
       </c>
       <c r="H27">
-        <v>3.307674452995643</v>
+        <v>10.58719264385814</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>4.687770414397508</v>
+        <v>4.454684999137527</v>
       </c>
       <c r="C28">
-        <v>5.578587627029527</v>
+        <v>4.857220212508453</v>
       </c>
       <c r="D28">
-        <v>5.299783524344431</v>
+        <v>5.498921875818968</v>
       </c>
       <c r="E28">
-        <v>5.592656265644516</v>
+        <v>5.046427674620752</v>
       </c>
       <c r="F28">
-        <v>6.117583209167653</v>
+        <v>6.247777623812099</v>
       </c>
       <c r="G28">
-        <v>11.58341217985781</v>
+        <v>10.72498301057236</v>
       </c>
       <c r="H28">
-        <v>6.440859411981068</v>
+        <v>6.697608053715594</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>8.839237067717818</v>
+        <v>3.725311278034625</v>
       </c>
       <c r="C29">
-        <v>11.2302191373107</v>
+        <v>4.065849470264122</v>
       </c>
       <c r="D29">
-        <v>10.65710192416478</v>
+        <v>4.340142628547152</v>
       </c>
       <c r="E29">
-        <v>12.57462289869456</v>
+        <v>4.242376085352831</v>
       </c>
       <c r="F29">
-        <v>9.650485508233226</v>
+        <v>4.722113852021211</v>
       </c>
       <c r="G29">
-        <v>17.90379434287184</v>
+        <v>9.824993420582356</v>
       </c>
       <c r="H29">
-        <v>10.58719264385814</v>
+        <v>5.020825040623829</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>4.454684999137527</v>
+        <v>3.303817620633207</v>
       </c>
       <c r="C30">
-        <v>4.857220212508453</v>
+        <v>3.49232631113136</v>
       </c>
       <c r="D30">
-        <v>5.498921875818968</v>
+        <v>4.174548232511482</v>
       </c>
       <c r="E30">
-        <v>5.046427674620752</v>
+        <v>3.63715602486458</v>
       </c>
       <c r="F30">
-        <v>6.247777623812099</v>
+        <v>5.038293180656011</v>
       </c>
       <c r="G30">
-        <v>10.72498301057236</v>
+        <v>9.720718716737254</v>
       </c>
       <c r="H30">
-        <v>6.697608053715594</v>
+        <v>5.941965514912876</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>3.725311278034625</v>
+        <v>4.455769986145647</v>
       </c>
       <c r="C31">
-        <v>4.065849470264122</v>
+        <v>4.768401727326224</v>
       </c>
       <c r="D31">
-        <v>4.340142628547152</v>
+        <v>5.75016182687574</v>
       </c>
       <c r="E31">
-        <v>4.242376085352831</v>
+        <v>4.645421771380652</v>
       </c>
       <c r="F31">
-        <v>4.722113852021211</v>
+        <v>7.146070345771949</v>
       </c>
       <c r="G31">
-        <v>9.824993420582356</v>
+        <v>19.71672691051787</v>
       </c>
       <c r="H31">
-        <v>5.020825040623829</v>
+        <v>8.018455316692904</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>3.303817620633207</v>
+        <v>11.39103573358611</v>
       </c>
       <c r="C32">
-        <v>3.49232631113136</v>
+        <v>11.28275299143506</v>
       </c>
       <c r="D32">
-        <v>4.174548232511482</v>
+        <v>14.27101232721359</v>
       </c>
       <c r="E32">
-        <v>3.63715602486458</v>
+        <v>13.3643387309887</v>
       </c>
       <c r="F32">
-        <v>5.038293180656011</v>
+        <v>11.15609744810502</v>
       </c>
       <c r="G32">
-        <v>9.720718716737254</v>
+        <v>32.17508515457155</v>
       </c>
       <c r="H32">
-        <v>5.941965514912876</v>
+        <v>11.58906132243311</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>4.455769986145647</v>
+        <v>4.760998596449217</v>
       </c>
       <c r="C33">
-        <v>4.768401727326224</v>
+        <v>5.064910936558605</v>
       </c>
       <c r="D33">
-        <v>5.75016182687574</v>
+        <v>6.227641600329654</v>
       </c>
       <c r="E33">
-        <v>4.645421771380652</v>
+        <v>4.879147863745116</v>
       </c>
       <c r="F33">
-        <v>7.146070345771949</v>
+        <v>8.871159706195447</v>
       </c>
       <c r="G33">
-        <v>19.71672691051787</v>
+        <v>11.51965154618186</v>
       </c>
       <c r="H33">
-        <v>8.018455316692904</v>
+        <v>11.99494608999633</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>11.39103573358611</v>
+        <v>3.368961791200909</v>
       </c>
       <c r="C34">
-        <v>11.28275299143506</v>
+        <v>3.813934134193769</v>
       </c>
       <c r="D34">
-        <v>14.27101232721359</v>
+        <v>4.08022270781506</v>
       </c>
       <c r="E34">
-        <v>13.3643387309887</v>
+        <v>4.182198127418479</v>
       </c>
       <c r="F34">
-        <v>11.15609744810502</v>
+        <v>3.967454003191645</v>
       </c>
       <c r="G34">
-        <v>32.17508515457155</v>
+        <v>7.418666550482802</v>
       </c>
       <c r="H34">
-        <v>11.58906132243311</v>
+        <v>4.122039052548024</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>4.760998596449217</v>
+        <v>15.45814958363711</v>
       </c>
       <c r="C35">
-        <v>5.064910936558605</v>
+        <v>15.69629081471617</v>
       </c>
       <c r="D35">
-        <v>6.227641600329654</v>
+        <v>17.81535002093755</v>
       </c>
       <c r="E35">
-        <v>4.879147863745116</v>
+        <v>17.00992730983735</v>
       </c>
       <c r="F35">
-        <v>8.871159706195447</v>
+        <v>17.77616276055578</v>
       </c>
       <c r="G35">
-        <v>11.51965154618186</v>
+        <v>31.25964304379674</v>
       </c>
       <c r="H35">
-        <v>11.99494608999633</v>
+        <v>16.3942540124089</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>3.368961791200909</v>
+        <v>6.518166846612028</v>
       </c>
       <c r="C36">
-        <v>3.813934134193769</v>
+        <v>7.377318934638513</v>
       </c>
       <c r="D36">
-        <v>4.08022270781506</v>
+        <v>8.325454533727587</v>
       </c>
       <c r="E36">
-        <v>4.182198127418479</v>
+        <v>8.293692001972637</v>
       </c>
       <c r="F36">
-        <v>3.967454003191645</v>
+        <v>8.254343257708113</v>
       </c>
       <c r="G36">
-        <v>7.418666550482802</v>
+        <v>15.81951232707019</v>
       </c>
       <c r="H36">
-        <v>4.122039052548024</v>
+        <v>8.759429081753986</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>15.45814958363711</v>
+        <v>5.08302107750314</v>
       </c>
       <c r="C37">
-        <v>15.69629081471617</v>
+        <v>5.754733398498938</v>
       </c>
       <c r="D37">
-        <v>17.81535002093755</v>
+        <v>6.400918164340347</v>
       </c>
       <c r="E37">
-        <v>17.00992730983735</v>
+        <v>6.463663086001246</v>
       </c>
       <c r="F37">
-        <v>17.77616276055578</v>
+        <v>5.815744788078375</v>
       </c>
       <c r="G37">
-        <v>31.25964304379674</v>
+        <v>10.98162945407443</v>
       </c>
       <c r="H37">
-        <v>16.3942540124089</v>
+        <v>6.106462153549687</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>6.518166846612028</v>
+        <v>5.480577724083235</v>
       </c>
       <c r="C38">
-        <v>7.377318934638513</v>
+        <v>6.255014853078334</v>
       </c>
       <c r="D38">
-        <v>8.325454533727587</v>
+        <v>6.504829021806389</v>
       </c>
       <c r="E38">
-        <v>8.293692001972637</v>
+        <v>7.188022032761872</v>
       </c>
       <c r="F38">
-        <v>8.254343257708113</v>
+        <v>6.461393788016418</v>
       </c>
       <c r="G38">
-        <v>15.81951232707019</v>
+        <v>13.23943766533303</v>
       </c>
       <c r="H38">
-        <v>8.759429081753986</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>5.08302107750314</v>
-      </c>
-      <c r="C39">
-        <v>5.754733398498938</v>
-      </c>
-      <c r="D39">
-        <v>6.400918164340347</v>
-      </c>
-      <c r="E39">
-        <v>6.463663086001246</v>
-      </c>
-      <c r="F39">
-        <v>5.815744788078375</v>
-      </c>
-      <c r="G39">
-        <v>10.98162945407443</v>
-      </c>
-      <c r="H39">
-        <v>6.106462153549687</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>5.480577724083235</v>
-      </c>
-      <c r="C40">
-        <v>6.255014853078334</v>
-      </c>
-      <c r="D40">
-        <v>6.504829021806389</v>
-      </c>
-      <c r="E40">
-        <v>7.188022032761872</v>
-      </c>
-      <c r="F40">
-        <v>6.461393788016418</v>
-      </c>
-      <c r="G40">
-        <v>13.23943766533303</v>
-      </c>
-      <c r="H40">
         <v>6.913342625723014</v>
       </c>
     </row>
